--- a/Indicators/JM_com_Isla Natividad Indicators.xlsx
+++ b/Indicators/JM_com_Isla Natividad Indicators.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/JAE/Escuela/Bren/TURF reserves/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio_Otto\Desktop\Bren School\TURFeffect\Docs\Indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26960" windowHeight="9320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26955" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -32,7 +32,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0">
+    <comment ref="D21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -474,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -501,6 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,20 +784,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>41</v>
       </c>
@@ -807,7 +808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -821,7 +822,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
         <v>53</v>
@@ -833,7 +834,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -845,11 +846,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -859,9 +860,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -869,7 +870,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="8" t="s">
         <v>25</v>
@@ -884,9 +885,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -896,9 +897,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -908,9 +909,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -920,9 +921,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -932,7 +933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="8" t="s">
         <v>11</v>
@@ -947,9 +948,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -959,7 +960,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>13</v>
@@ -971,9 +972,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -983,9 +984,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -995,9 +996,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1007,7 +1008,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>17</v>
@@ -1019,7 +1020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" t="s">
         <v>31</v>
@@ -1031,7 +1032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" t="s">
         <v>19</v>
@@ -1043,7 +1044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
         <v>32</v>
@@ -1055,7 +1056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>21</v>
